--- a/tests/5/case_5_countries.xlsx
+++ b/tests/5/case_5_countries.xlsx
@@ -1446,13 +1446,13 @@
         <v>500</v>
       </c>
       <c r="D6" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
-        <v>4250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
